--- a/biology/Zoologie/Cebrennus/Cebrennus.xlsx
+++ b/biology/Zoologie/Cebrennus/Cebrennus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cebrennus est un genre d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cebrennus est un genre d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique du Nord, à Malte, au Moyen-Orient et en Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique du Nord, à Malte, au Moyen-Orient et en Asie centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 05/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 05/02/2024) :
 Cebrennus aethiopicus Simon, 1880
 Cebrennus atlas Jäger, 2014
 Cebrennus castaneitarsis Simon, 1880
@@ -592,10 +608,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cebrenis[2] Simon, 1874, préoccupé par Cebrenis Stål, 1862, a été remplacé par Cebrennus par Simon en 1880[3].
-Cerbalopsis[4] a été placé en synonymie par Jäger en 2000[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cebrenis Simon, 1874, préoccupé par Cebrenis Stål, 1862, a été remplacé par Cebrennus par Simon en 1880.
+Cerbalopsis a été placé en synonymie par Jäger en 2000.
 </t>
         </is>
       </c>
@@ -624,7 +642,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1880 : « Révision de la famille des Sparassidae (Arachnides). » Actes de la Société Linnéenne de Bordeaux, vol. 34, p. 223-351 (texte intégral).
 Simon, 1874 : « Études arachnologiques. 3e mémoire. V. Révision des espèces européennes de la famille des Sparassidae. » Annales de la Société Entomologique de France, sér. 5, vol. 4, p. 243-279 (texte intégral).</t>
